--- a/sprint 2 plan 19.4.2021.xlsx
+++ b/sprint 2 plan 19.4.2021.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ali/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ali/Downloads/CSY026SE-AntsVsBees/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{06E6B9AD-B199-F84F-865B-781A12C1F322}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82EF7920-2F51-C24A-B706-8D4C9F827794}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sprint 2" sheetId="1" r:id="rId1"/>
+    <sheet name="Sprint 3" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="56">
   <si>
     <t>Names</t>
   </si>
@@ -190,6 +191,18 @@
   </si>
   <si>
     <t>Pull request open</t>
+  </si>
+  <si>
+    <t>Done with wallant branch. Separate branch not created</t>
+  </si>
+  <si>
+    <t>Create user accounts. Allow saving the level of a game for each user account</t>
+  </si>
+  <si>
+    <t>Include a help/guide menu that shows the description of each ant and bee</t>
+  </si>
+  <si>
+    <t>Include the following additional bees: (a) Zombie Bee : can attack 3 ants together (b) Ghost Bee: passes through nearly all ants without any damage. Only Ninja ant and Queen ant can attack/damage a Ghost Bee.</t>
   </si>
 </sst>
 </file>
@@ -250,7 +263,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -258,25 +271,46 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -596,7 +630,7 @@
   <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -605,320 +639,370 @@
     <col min="2" max="2" width="77.6640625" style="2" customWidth="1"/>
     <col min="3" max="3" width="9.33203125" style="2" customWidth="1"/>
     <col min="4" max="4" width="38" style="2" customWidth="1"/>
-    <col min="5" max="5" width="21.1640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="54.5" style="2" customWidth="1"/>
     <col min="6" max="16384" width="8.83203125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="6" t="s">
+      <c r="C1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="4" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="6">
         <v>3</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="6" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B3" s="2" t="s">
+      <c r="A3" s="6"/>
+      <c r="B3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="2">
-        <v>2</v>
-      </c>
-      <c r="D3" s="3" t="s">
+      <c r="C3" s="6">
+        <v>2</v>
+      </c>
+      <c r="D3" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="6" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B4" s="2" t="s">
+      <c r="A4" s="6"/>
+      <c r="B4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="6">
         <v>3</v>
       </c>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B5" s="2" t="s">
+      <c r="A5" s="6"/>
+      <c r="B5" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="2">
-        <v>2</v>
+      <c r="C5" s="6">
+        <v>2</v>
+      </c>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B6" s="2" t="s">
+      <c r="A6" s="6"/>
+      <c r="B6" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="2">
-        <v>2</v>
-      </c>
-      <c r="D6" s="3" t="s">
+      <c r="C6" s="6">
+        <v>2</v>
+      </c>
+      <c r="D6" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="6" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B7" s="2" t="s">
+      <c r="A7" s="6"/>
+      <c r="B7" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="6">
         <v>3</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="6" t="s">
         <v>48</v>
       </c>
     </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+    </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="6">
         <v>3</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="6" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B10" s="2" t="s">
+      <c r="A10" s="6"/>
+      <c r="B10" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="2">
-        <v>2</v>
-      </c>
-      <c r="D10" s="3" t="s">
+      <c r="C10" s="6">
+        <v>2</v>
+      </c>
+      <c r="D10" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" s="6" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B11" s="2" t="s">
+      <c r="A11" s="6"/>
+      <c r="B11" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="2">
-        <v>2</v>
-      </c>
-      <c r="D11" s="3" t="s">
+      <c r="C11" s="6">
+        <v>2</v>
+      </c>
+      <c r="D11" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" s="6" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B12" s="2" t="s">
+      <c r="A12" s="6"/>
+      <c r="B12" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="2">
-        <v>2</v>
-      </c>
-      <c r="D12" s="4"/>
+      <c r="C12" s="6">
+        <v>2</v>
+      </c>
+      <c r="D12" s="8"/>
+      <c r="E12" s="6"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B13" s="2" t="s">
+      <c r="A13" s="6"/>
+      <c r="B13" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="2">
-        <v>2</v>
-      </c>
-      <c r="D13" s="4"/>
+      <c r="C13" s="6">
+        <v>2</v>
+      </c>
+      <c r="D13" s="8"/>
+      <c r="E13" s="6"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B14" s="2" t="s">
+      <c r="A14" s="6"/>
+      <c r="B14" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="2">
-        <v>2</v>
-      </c>
-      <c r="D14" s="4"/>
+      <c r="C14" s="6">
+        <v>2</v>
+      </c>
+      <c r="D14" s="8"/>
+      <c r="E14" s="6"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B15" s="2" t="s">
+      <c r="A15" s="6"/>
+      <c r="B15" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D15" s="5"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="6"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B16" s="2" t="s">
+      <c r="A16" s="6"/>
+      <c r="B16" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="C16" s="6"/>
+      <c r="D16" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="E16" s="6" t="s">
         <v>51</v>
       </c>
     </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="6"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+    </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C18" s="6">
         <v>3</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D18" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="E18" s="6" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B19" s="2" t="s">
+      <c r="A19" s="6"/>
+      <c r="B19" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="2">
-        <v>2</v>
-      </c>
-      <c r="D19" s="3" t="s">
+      <c r="C19" s="6">
+        <v>2</v>
+      </c>
+      <c r="D19" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="E19" s="6" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B20" s="2" t="s">
+      <c r="A20" s="6"/>
+      <c r="B20" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C20" s="2">
+      <c r="C20" s="6">
         <v>5</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="D20" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="E20" s="6" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B21" s="2" t="s">
+      <c r="A21" s="6"/>
+      <c r="B21" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C21" s="2">
-        <v>2</v>
-      </c>
-      <c r="D21" s="3" t="s">
+      <c r="C21" s="6">
+        <v>2</v>
+      </c>
+      <c r="D21" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="E21" s="6" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B22" s="2" t="s">
+      <c r="A22" s="6"/>
+      <c r="B22" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C22" s="2">
-        <v>2</v>
-      </c>
+      <c r="C22" s="6">
+        <v>2</v>
+      </c>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B23" s="2" t="s">
+      <c r="A23" s="6"/>
+      <c r="B23" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C23" s="2">
+      <c r="C23" s="6">
         <v>3</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="D23" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="E23" s="2" t="s">
+      <c r="E23" s="6" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="1"/>
-      <c r="B24" s="2" t="s">
+      <c r="A24" s="10"/>
+      <c r="B24" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C24" s="2">
-        <v>2</v>
-      </c>
-      <c r="D24" s="3" t="s">
+      <c r="C24" s="6">
+        <v>2</v>
+      </c>
+      <c r="D24" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="E24" s="2" t="s">
+      <c r="E24" s="6" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="1"/>
-      <c r="B25" s="2" t="s">
+      <c r="A25" s="10"/>
+      <c r="B25" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="C25" s="6"/>
+      <c r="D25" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="E25" s="2" t="s">
+      <c r="E25" s="6" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="1"/>
-      <c r="B26" s="2" t="s">
+      <c r="A26" s="10"/>
+      <c r="B26" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="C26" s="6"/>
+      <c r="D26" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="E26" s="2" t="s">
+      <c r="E26" s="6" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="1"/>
-      <c r="B27" s="2" t="s">
+      <c r="A27" s="10"/>
+      <c r="B27" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="C27" s="6"/>
+      <c r="D27" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="E27" s="2" t="s">
+      <c r="E27" s="6" t="s">
         <v>47</v>
       </c>
     </row>
@@ -968,4 +1052,78 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId19"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8814B48-8DC8-3F4F-9483-6736E797D3CE}">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.6640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="74.83203125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="10.1640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="27.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="10.83203125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="40" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="20" x14ac:dyDescent="0.25">
+      <c r="A2" s="6"/>
+      <c r="B2" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+    </row>
+    <row r="3" spans="1:5" ht="20" x14ac:dyDescent="0.25">
+      <c r="A3" s="6"/>
+      <c r="B3" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+    </row>
+    <row r="4" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4" s="6"/>
+      <c r="B4" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/sprint 2 plan 19.4.2021.xlsx
+++ b/sprint 2 plan 19.4.2021.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ali/Downloads/CSY026SE-AntsVsBees/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82EF7920-2F51-C24A-B706-8D4C9F827794}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F842ED9-1520-944A-8917-306D255D2041}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="60">
   <si>
     <t>Names</t>
   </si>
@@ -203,6 +203,18 @@
   </si>
   <si>
     <t>Include the following additional bees: (a) Zombie Bee : can attack 3 ants together (b) Ghost Bee: passes through nearly all ants without any damage. Only Ninja ant and Queen ant can attack/damage a Ghost Bee.</t>
+  </si>
+  <si>
+    <t>ThrowerAnt_Test</t>
+  </si>
+  <si>
+    <t>LongThrowerAnt_Test</t>
+  </si>
+  <si>
+    <t>ShortThrowerAnt_Test</t>
+  </si>
+  <si>
+    <t>add_levels_to_game</t>
   </si>
 </sst>
 </file>
@@ -291,7 +303,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -302,9 +314,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -629,8 +638,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -810,7 +819,9 @@
       <c r="C12" s="6">
         <v>2</v>
       </c>
-      <c r="D12" s="8"/>
+      <c r="D12" s="3" t="s">
+        <v>56</v>
+      </c>
       <c r="E12" s="6"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -821,7 +832,9 @@
       <c r="C13" s="6">
         <v>2</v>
       </c>
-      <c r="D13" s="8"/>
+      <c r="D13" s="3" t="s">
+        <v>57</v>
+      </c>
       <c r="E13" s="6"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -832,7 +845,9 @@
       <c r="C14" s="6">
         <v>2</v>
       </c>
-      <c r="D14" s="8"/>
+      <c r="D14" s="3" t="s">
+        <v>58</v>
+      </c>
       <c r="E14" s="6"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -840,8 +855,10 @@
       <c r="B15" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="6"/>
-      <c r="D15" s="9"/>
+      <c r="C15" s="6">
+        <v>3</v>
+      </c>
+      <c r="D15" s="8"/>
       <c r="E15" s="6"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -849,7 +866,9 @@
       <c r="B16" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="6"/>
+      <c r="C16" s="6">
+        <v>5</v>
+      </c>
       <c r="D16" s="7" t="s">
         <v>38</v>
       </c>
@@ -902,7 +921,7 @@
         <v>23</v>
       </c>
       <c r="C20" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D20" s="7" t="s">
         <v>40</v>
@@ -934,7 +953,9 @@
       <c r="C22" s="6">
         <v>2</v>
       </c>
-      <c r="D22" s="6"/>
+      <c r="D22" s="3" t="s">
+        <v>59</v>
+      </c>
       <c r="E22" s="6"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -953,7 +974,7 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="10"/>
+      <c r="A24" s="9"/>
       <c r="B24" s="6" t="s">
         <v>26</v>
       </c>
@@ -968,11 +989,13 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="10"/>
+      <c r="A25" s="9"/>
       <c r="B25" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="C25" s="6"/>
+      <c r="C25" s="6">
+        <v>2</v>
+      </c>
       <c r="D25" s="7" t="s">
         <v>43</v>
       </c>
@@ -981,11 +1004,13 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="10"/>
+      <c r="A26" s="9"/>
       <c r="B26" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="C26" s="6"/>
+      <c r="C26" s="6">
+        <v>2</v>
+      </c>
       <c r="D26" s="7" t="s">
         <v>46</v>
       </c>
@@ -994,11 +1019,13 @@
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="10"/>
+      <c r="A27" s="9"/>
       <c r="B27" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C27" s="6"/>
+      <c r="C27" s="6">
+        <v>1</v>
+      </c>
       <c r="D27" s="7" t="s">
         <v>43</v>
       </c>
@@ -1048,9 +1075,13 @@
     <hyperlink ref="D25" r:id="rId16" display="https://github.com/Muhammadali945/CSY026SE-AntsVsBees/tree/add-scuba-ant" xr:uid="{AFAEAFA6-6179-2B4B-821F-BCB121C8F40E}"/>
     <hyperlink ref="D27" r:id="rId17" display="https://github.com/Muhammadali945/CSY026SE-AntsVsBees/tree/add-scuba-ant" xr:uid="{F74B188A-CAE8-D140-931F-328CB7DDE583}"/>
     <hyperlink ref="D26" r:id="rId18" display="https://github.com/Muhammadali945/CSY026SE-AntsVsBees/tree/scuba_ant_tests" xr:uid="{5F8DBEE7-E84F-E044-A5E2-F9FBCAF9BC9E}"/>
+    <hyperlink ref="D12" r:id="rId19" display="https://github.com/Muhammadali945/CSY026SE-AntsVsBees/tree/ThrowerAnt_Test" xr:uid="{6BB7B7D4-E531-3E46-B776-AA9B1A8C6854}"/>
+    <hyperlink ref="D13" r:id="rId20" display="https://github.com/Muhammadali945/CSY026SE-AntsVsBees/tree/LongThrowerAnt_Test" xr:uid="{28E6FDFC-70D6-554F-B7E7-DE17DACCC8A9}"/>
+    <hyperlink ref="D14" r:id="rId21" display="https://github.com/Muhammadali945/CSY026SE-AntsVsBees/tree/ShortThrowerAnt_Test" xr:uid="{3E3FB634-FD38-E047-BCB1-82EC50589FFB}"/>
+    <hyperlink ref="D22" r:id="rId22" display="https://github.com/Muhammadali945/CSY026SE-AntsVsBees/tree/add_levels_to_game" xr:uid="{BA4C73F2-B8E0-0F49-AA3F-6FD2938D391E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId19"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId23"/>
 </worksheet>
 </file>
 
@@ -1091,7 +1122,7 @@
     </row>
     <row r="2" spans="1:5" ht="20" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="10" t="s">
         <v>53</v>
       </c>
       <c r="C2" s="6"/>
@@ -1100,7 +1131,7 @@
     </row>
     <row r="3" spans="1:5" ht="20" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="10" t="s">
         <v>54</v>
       </c>
       <c r="C3" s="6"/>
@@ -1109,7 +1140,7 @@
     </row>
     <row r="4" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="6"/>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="10" t="s">
         <v>55</v>
       </c>
       <c r="C4" s="6"/>

--- a/sprint 2 plan 19.4.2021.xlsx
+++ b/sprint 2 plan 19.4.2021.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ali/Downloads/CSY026SE-AntsVsBees/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F842ED9-1520-944A-8917-306D255D2041}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB8602D8-8F24-C54A-81CE-619F182ABC98}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="60">
   <si>
     <t>Names</t>
   </si>
@@ -638,8 +638,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -793,7 +793,7 @@
         <v>36</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -822,7 +822,9 @@
       <c r="D12" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="E12" s="6"/>
+      <c r="E12" s="6" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="6"/>
@@ -835,7 +837,9 @@
       <c r="D13" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="E13" s="6"/>
+      <c r="E13" s="6" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>

--- a/sprint 2 plan 19.4.2021.xlsx
+++ b/sprint 2 plan 19.4.2021.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ali/Downloads/CSY026SE-AntsVsBees/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB8602D8-8F24-C54A-81CE-619F182ABC98}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB1E5C4C-1538-5747-BB6C-542E917F91B0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16400" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint 2" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="65">
   <si>
     <t>Names</t>
   </si>
@@ -196,9 +196,6 @@
     <t>Done with wallant branch. Separate branch not created</t>
   </si>
   <si>
-    <t>Create user accounts. Allow saving the level of a game for each user account</t>
-  </si>
-  <si>
     <t>Include a help/guide menu that shows the description of each ant and bee</t>
   </si>
   <si>
@@ -215,6 +212,24 @@
   </si>
   <si>
     <t>add_levels_to_game</t>
+  </si>
+  <si>
+    <t>Complete all black box tests</t>
+  </si>
+  <si>
+    <t>Slow thrower ant and its tests</t>
+  </si>
+  <si>
+    <t>Queen ants and its tests</t>
+  </si>
+  <si>
+    <t>Stun thrower and its test</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>Add levels to the game</t>
   </si>
 </sst>
 </file>
@@ -261,7 +276,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -274,8 +289,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -298,12 +319,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -321,6 +355,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -638,7 +678,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
@@ -820,7 +860,7 @@
         <v>2</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>50</v>
@@ -835,7 +875,7 @@
         <v>2</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>50</v>
@@ -850,7 +890,7 @@
         <v>2</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E14" s="6"/>
     </row>
@@ -958,7 +998,7 @@
         <v>2</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E22" s="6"/>
     </row>
@@ -1091,10 +1131,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8814B48-8DC8-3F4F-9483-6736E797D3CE}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -1124,41 +1164,120 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="20" x14ac:dyDescent="0.25">
-      <c r="A2" s="6"/>
-      <c r="B2" s="10" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2" s="12">
+        <v>2</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="20" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-    </row>
-    <row r="3" spans="1:5" ht="20" x14ac:dyDescent="0.25">
-      <c r="A3" s="6"/>
-      <c r="B3" s="10" t="s">
+      <c r="C3" s="6">
+        <v>2</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-    </row>
-    <row r="4" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A4" s="6"/>
-      <c r="B4" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="C4" s="6"/>
+      <c r="C4" s="6">
+        <v>3</v>
+      </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="20" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="14"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" display="https://github.com/Muhammadali945/CSY026SE-AntsVsBees/tree/add_levels_to_game" xr:uid="{BD0B2193-2421-B440-997D-05EBF39A9AF6}"/>
+    <hyperlink ref="D3" r:id="rId2" display="https://github.com/Muhammadali945/CSY026SE-AntsVsBees/tree/add_levels_to_game" xr:uid="{B2ED13FD-DF56-994F-B634-96CFBBC3E102}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>